--- a/Series Univariadas/Bases de Datos/Lluvia.xlsx
+++ b/Series Univariadas/Bases de Datos/Lluvia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiocalderonv/Documents/Documentos Mac Book Sergio/Cursos/Time Series/Series de Tiempo Univariadas 2020-I/Bases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergiocalderon/Documents/GitHub/TimeSeries/Series Univariadas/Bases de Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5307B1C-4630-0E4D-ACCD-849DA275DD22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEAF5A1-17BD-2C47-A681-7B9D9BB01B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -49,12 +49,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,9 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,8 +361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -404,7 +411,7 @@
       <c r="A6" s="1">
         <v>39934</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>4.4387096774193546</v>
       </c>
     </row>
@@ -500,7 +507,7 @@
       <c r="A18" s="1">
         <v>40299</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>7.7516129032258068</v>
       </c>
     </row>
@@ -588,7 +595,7 @@
       <c r="A29" s="1">
         <v>40634</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>8.2133333333333329</v>
       </c>
     </row>
@@ -692,7 +699,7 @@
       <c r="A42" s="1">
         <v>41030</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>7.935483870967742</v>
       </c>
     </row>
@@ -788,7 +795,7 @@
       <c r="A54" s="1">
         <v>41395</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>9.3806451612903228</v>
       </c>
     </row>
@@ -884,7 +891,7 @@
       <c r="A66" s="1">
         <v>41760</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>7.4903225806451612</v>
       </c>
     </row>
@@ -980,7 +987,7 @@
       <c r="A78" s="1">
         <v>42125</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
         <v>6.467741935483871</v>
       </c>
     </row>
@@ -1076,7 +1083,7 @@
       <c r="A90" s="1">
         <v>42491</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
         <v>8.6387096774193548</v>
       </c>
     </row>
@@ -1172,7 +1179,7 @@
       <c r="A102" s="1">
         <v>42856</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
         <v>8.6354838709677413</v>
       </c>
     </row>
@@ -1268,7 +1275,7 @@
       <c r="A114" s="1">
         <v>43221</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
         <v>9.5483870967741939</v>
       </c>
     </row>
@@ -1364,7 +1371,7 @@
       <c r="A126" s="1">
         <v>43586</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="2">
         <v>9.6419354838709683</v>
       </c>
     </row>
